--- a/app/shiny/config/typicalHousholdPowerConsumption.xlsx
+++ b/app/shiny/config/typicalHousholdPowerConsumption.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\hslu-ige-laes\lcm\app\shiny\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\hslu-ige-laes\redutils\inst\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="typicalHousholdPowerConsumption" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -403,28 +403,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -588,17 +588,17 @@
         <v>207.5</v>
       </c>
       <c r="O3">
-        <f>O4</f>
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>P2+130</f>
+        <v>130</v>
       </c>
       <c r="Q3" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -651,13 +651,14 @@
         <v>2000</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f t="shared" ref="P4:P12" si="4">P3+130</f>
+        <v>260</v>
       </c>
       <c r="Q4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -678,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G23" si="4">C5*0.05</f>
+        <f t="shared" ref="G5:G23" si="5">C5*0.05</f>
         <v>151.25</v>
       </c>
       <c r="H5" s="1">
@@ -710,17 +711,17 @@
         <v>292.5</v>
       </c>
       <c r="O5">
-        <f>O6</f>
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>390</v>
       </c>
       <c r="Q5" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="H6" s="2">
@@ -773,14 +774,15 @@
         <f>$O$2+(B6-1)*800</f>
         <v>2800</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>520</v>
       </c>
       <c r="Q6" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -801,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>178.75</v>
       </c>
       <c r="H7" s="1">
@@ -833,17 +835,17 @@
         <v>377.5</v>
       </c>
       <c r="O7">
-        <f>O8</f>
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>650</v>
       </c>
       <c r="Q7" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -863,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>192.5</v>
       </c>
       <c r="H8">
@@ -897,13 +899,14 @@
         <v>3600</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>780</v>
       </c>
       <c r="Q8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -924,7 +927,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="H9" s="1">
@@ -956,17 +959,17 @@
         <v>462.5</v>
       </c>
       <c r="O9">
-        <f>O10</f>
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>910</v>
       </c>
       <c r="Q9" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -986,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>217.5</v>
       </c>
       <c r="H10">
@@ -1020,13 +1023,14 @@
         <v>4400</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1040</v>
       </c>
       <c r="Q10" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="H11" s="1">
@@ -1079,17 +1083,17 @@
         <v>547.5</v>
       </c>
       <c r="O11">
-        <f>O12</f>
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1170</v>
       </c>
       <c r="Q11" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242.5</v>
       </c>
       <c r="H12">
@@ -1143,13 +1147,14 @@
         <v>5200</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1300</v>
       </c>
       <c r="Q12" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="H13">
@@ -1183,7 +1188,7 @@
         <v>350</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:K23" si="5">50*B13</f>
+        <f t="shared" ref="K13:K23" si="6">50*B13</f>
         <v>50</v>
       </c>
       <c r="L13" s="1">
@@ -1208,7 +1213,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156.25</v>
       </c>
       <c r="H14" s="1">
@@ -1237,7 +1242,7 @@
         <v>250</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14:I23" si="6">(99+B14*88)/2</f>
+        <f t="shared" ref="I14:I23" si="7">(99+B14*88)/2</f>
         <v>115.5</v>
       </c>
       <c r="J14" s="1">
@@ -1245,7 +1250,7 @@
         <v>350</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="L14" s="1">
@@ -1253,27 +1258,26 @@
         <v>275</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" ref="M14:M23" si="7">94+B14*78</f>
+        <f t="shared" ref="M14:M23" si="8">94+B14*78</f>
         <v>211</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" ref="N14:N23" si="8">99+B14*88</f>
+        <f t="shared" ref="N14:N23" si="9">99+B14*88</f>
         <v>231</v>
       </c>
       <c r="O14">
-        <f>O15</f>
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="P14">
-        <f>P15</f>
-        <v>710</v>
+        <f>(P15-P13)/2+P13</f>
+        <v>580</v>
       </c>
       <c r="Q14">
         <f>600+B14*150</f>
         <v>825</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1293,32 +1297,32 @@
         <v>6</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>177.5</v>
       </c>
       <c r="H15">
         <v>250</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137.5</v>
       </c>
       <c r="J15">
         <v>350</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="L15" s="1">
         <v>275</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="O15">
@@ -1334,7 +1338,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198.75</v>
       </c>
       <c r="H16" s="1">
@@ -1363,7 +1367,7 @@
         <v>275</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>159.5</v>
       </c>
       <c r="J16" s="1">
@@ -1371,7 +1375,7 @@
         <v>400</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="L16" s="1">
@@ -1379,27 +1383,26 @@
         <v>330</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>289</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>319</v>
       </c>
       <c r="O16">
-        <f>O17</f>
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="P16">
-        <f>P17</f>
-        <v>970</v>
+        <f>(P17-P15)/2+P15</f>
+        <v>840</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16:Q19" si="9">600+B16*150</f>
+        <f t="shared" ref="Q16:Q19" si="10">600+B16*150</f>
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1419,21 +1422,21 @@
         <v>7</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="H17">
         <v>275</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>181.5</v>
       </c>
       <c r="J17">
         <v>400</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="L17" s="1">
@@ -1441,11 +1444,11 @@
         <v>330</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>328</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>363</v>
       </c>
       <c r="O17">
@@ -1457,11 +1460,11 @@
         <v>970</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1050</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="H18" s="1">
@@ -1490,7 +1493,7 @@
         <v>300</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>203.5</v>
       </c>
       <c r="J18" s="1">
@@ -1498,7 +1501,7 @@
         <v>400</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="L18" s="1">
@@ -1506,27 +1509,26 @@
         <v>440</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>367</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>407</v>
       </c>
       <c r="O18">
-        <f>O19</f>
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="P18">
-        <f>P19</f>
-        <v>1230</v>
+        <f>(P19-P17)/2+P17</f>
+        <v>1100</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1125</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1546,21 +1548,21 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="H19">
         <v>300</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225.5</v>
       </c>
       <c r="J19">
         <v>400</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="L19" s="1">
@@ -1568,11 +1570,11 @@
         <v>440</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>451</v>
       </c>
       <c r="O19">
@@ -1584,11 +1586,11 @@
         <v>1230</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278.75</v>
       </c>
       <c r="H20" s="1">
@@ -1617,7 +1619,7 @@
         <v>325</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247.5</v>
       </c>
       <c r="J20" s="1">
@@ -1625,7 +1627,7 @@
         <v>450</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="L20" s="1">
@@ -1633,27 +1635,26 @@
         <v>605</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>445</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="O20">
-        <f>O21</f>
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="P20">
-        <f>P21</f>
-        <v>1490</v>
+        <f>(P21-P19)/2+P19</f>
+        <v>1360</v>
       </c>
       <c r="Q20">
         <f>600+B20*150</f>
         <v>1275</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1673,21 +1674,21 @@
         <v>7</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297.5</v>
       </c>
       <c r="H21">
         <v>325</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>269.5</v>
       </c>
       <c r="J21">
         <v>450</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="L21" s="1">
@@ -1695,11 +1696,11 @@
         <v>605</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>484</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>539</v>
       </c>
       <c r="O21">
@@ -1715,7 +1716,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316.25</v>
       </c>
       <c r="H22" s="1">
@@ -1744,7 +1745,7 @@
         <v>350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>291.5</v>
       </c>
       <c r="J22" s="1">
@@ -1752,7 +1753,7 @@
         <v>450</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="L22" s="1">
@@ -1760,27 +1761,26 @@
         <v>825</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
       <c r="O22">
-        <f>O23</f>
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="P22">
-        <f>P23</f>
-        <v>1750</v>
+        <f>(P23-P21)/2+P21</f>
+        <v>1620</v>
       </c>
       <c r="Q22">
         <f>600+B22*150</f>
         <v>1425</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1800,21 +1800,21 @@
         <v>8</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="H23">
         <v>350</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>313.5</v>
       </c>
       <c r="J23">
         <v>450</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="L23" s="1">
@@ -1822,11 +1822,11 @@
         <v>825</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>627</v>
       </c>
       <c r="O23">
@@ -1838,38 +1838,38 @@
         <v>1750</v>
       </c>
       <c r="Q23">
-        <f t="shared" ref="Q23" si="10">600+B23*150</f>
+        <f t="shared" ref="Q23" si="11">600+B23*150</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
     </row>
   </sheetData>
